--- a/docs/ReviewerRestrictions.xlsx
+++ b/docs/ReviewerRestrictions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aaaaae977404fa3b/EBAR/Requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{3F18725F-B06B-4BE5-8ABE-924935474605}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3459EC6B-B242-448F-BC6B-43446FCD6F57}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{3F18725F-B06B-4BE5-8ABE-924935474605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3459EC6B-B242-448F-BC6B-43446FCD6F57}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4624E30-6736-4323-BE02-00D449A888BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E4624E30-6736-4323-BE02-00D449A888BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,21 +443,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB71792-470F-4981-8D04-0D6D44936937}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -469,12 +471,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -488,7 +490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,7 +504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
